--- a/diary/2017-3-24(L).xlsx
+++ b/diary/2017-3-24(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>P</t>
   </si>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>健身項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高蛋白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -472,7 +468,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -495,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="3" t="s">
@@ -503,25 +499,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>34.5</v>
@@ -535,7 +519,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>5.8</v>
@@ -549,7 +533,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>8.9499999999999993</v>
@@ -563,7 +547,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>17.100000000000001</v>
@@ -577,7 +561,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>11.3</v>
@@ -591,7 +575,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>7.5</v>
@@ -605,7 +589,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>12.8</v>
@@ -619,17 +603,17 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,19 +622,19 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>127.94999999999999</v>
+        <v>97.949999999999989</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>115.2</v>
+        <v>110.2</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>95.3</v>
+        <v>94.3</v>
       </c>
       <c r="E18" s="1">
         <f>B18*4+C18*4+D18*9+800</f>
-        <v>2630.2999999999997</v>
+        <v>2481.2999999999997</v>
       </c>
     </row>
   </sheetData>
